--- a/elomemoGantt.xlsx
+++ b/elomemoGantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e.bernardez\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6184E5-37A9-430E-A57C-9265EBC73E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA886CEA-7C6A-4961-B007-DC56C3F24A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-9075" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1955,7 +1955,7 @@
   <dimension ref="A1:BK30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
